--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_11.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>434363.1358300057</v>
+        <v>437681.954294145</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1207873.763444805</v>
+        <v>1207873.763444806</v>
       </c>
     </row>
     <row r="8">
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>32.98509320445461</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -701,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>207.6001488937379</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>172.8635119310595</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="X2" t="n">
         <v>207.6001488937379</v>
       </c>
       <c r="Y2" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>145.2273134933151</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>47.12690436751522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>182.8542111456044</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,64 +905,64 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>207.6001488937379</v>
       </c>
-      <c r="G5" t="n">
+      <c r="Y5" t="n">
         <v>207.6001488937379</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>207.6001488937379</v>
-      </c>
-      <c r="W5" t="n">
-        <v>182.8542111456044</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>54.95729420785304</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>117.8667634566034</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>182.8542111456044</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>22.99439398990982</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>207.6001488937379</v>
@@ -1212,7 +1212,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>125.590505927092</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>25.28712478199938</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="E11" t="n">
-        <v>11.0451046352973</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>207.6001488937379</v>
+        <v>182.8542111456044</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>70.42922108101449</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>54.95729420785295</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1649,16 +1649,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>160.9142225764469</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>170.9049217909918</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,55 +1853,55 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>170.9049217909918</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
         <v>207.6001488937379</v>
       </c>
-      <c r="H17" t="n">
+      <c r="T17" t="n">
         <v>207.6001488937379</v>
       </c>
-      <c r="I17" t="n">
+      <c r="U17" t="n">
         <v>207.6001488937379</v>
       </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>22.99439398990983</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,22 +1923,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>105.1697466874295</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>125.3021836555197</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>92.95466700954542</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2123,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>23.81301614990497</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>69.36224119091113</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,16 +2166,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2315,14 +2315,14 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,19 +2369,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>241.0142888776591</v>
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>8.137491328575427</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>143.8263020281278</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2527,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,76 +2552,76 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>212.285385643442</v>
       </c>
     </row>
     <row r="27">
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2646,16 +2646,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>120.762787058325</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -2694,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,10 +2843,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>70.73885857389313</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,13 +2883,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>200.8827955816239</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3001,10 +3001,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3086,16 +3086,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3111,22 +3111,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>118.7764738957966</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>56.1181324033527</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3193,61 +3193,61 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>230.2038249569697</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>241.0142888776591</v>
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3396,19 +3396,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U36" t="n">
-        <v>188.3846872176662</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3554,13 +3554,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>218.2545356023573</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3588,19 +3588,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>66.85967777123663</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3782,31 +3782,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>157.5310968514814</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>48.48515950437164</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>172.8635119310595</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,10 +3983,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3995,10 +3995,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>160.9142225764469</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,19 +4053,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>11.10362932124095</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>12.99820373202691</v>
       </c>
     </row>
     <row r="46">
@@ -4144,52 +4144,52 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49.9262878755946</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="C2" t="n">
-        <v>49.9262878755946</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="D2" t="n">
-        <v>49.9262878755946</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="E2" t="n">
-        <v>49.9262878755946</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="F2" t="n">
-        <v>49.9262878755946</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="G2" t="n">
-        <v>49.9262878755946</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="H2" t="n">
         <v>16.60801191149903</v>
@@ -4331,16 +4331,16 @@
         <v>16.60801191149903</v>
       </c>
       <c r="K2" t="n">
-        <v>119.6230178224214</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="L2" t="n">
-        <v>299.69886940708</v>
+        <v>180.4972953306516</v>
       </c>
       <c r="M2" t="n">
-        <v>505.2230168118805</v>
+        <v>386.0214427354521</v>
       </c>
       <c r="N2" t="n">
-        <v>710.747164216681</v>
+        <v>591.5455901402526</v>
       </c>
       <c r="O2" t="n">
         <v>740.7405402829006</v>
@@ -4349,31 +4349,31 @@
         <v>830.4005955749516</v>
       </c>
       <c r="Q2" t="n">
-        <v>830.4005955749516</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="R2" t="n">
-        <v>679.0176481596488</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="S2" t="n">
-        <v>469.3205280649641</v>
+        <v>610.6118601120397</v>
       </c>
       <c r="T2" t="n">
-        <v>469.3205280649641</v>
+        <v>610.6118601120397</v>
       </c>
       <c r="U2" t="n">
-        <v>469.3205280649641</v>
+        <v>436.0022521008685</v>
       </c>
       <c r="V2" t="n">
-        <v>469.3205280649641</v>
+        <v>436.0022521008685</v>
       </c>
       <c r="W2" t="n">
-        <v>469.3205280649641</v>
+        <v>226.3051320061838</v>
       </c>
       <c r="X2" t="n">
-        <v>259.6234079702793</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="Y2" t="n">
-        <v>49.9262878755946</v>
+        <v>16.60801191149903</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>339.9954508538773</v>
+        <v>163.1425698846141</v>
       </c>
       <c r="C3" t="n">
-        <v>165.5424215727503</v>
+        <v>163.1425698846141</v>
       </c>
       <c r="D3" t="n">
-        <v>16.60801191149903</v>
+        <v>163.1425698846141</v>
       </c>
       <c r="E3" t="n">
-        <v>16.60801191149903</v>
+        <v>163.1425698846141</v>
       </c>
       <c r="F3" t="n">
         <v>16.60801191149903</v>
@@ -4410,13 +4410,13 @@
         <v>16.60801191149903</v>
       </c>
       <c r="K3" t="n">
-        <v>141.9655719693364</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="L3" t="n">
-        <v>347.4897193741369</v>
+        <v>167.3142646386704</v>
       </c>
       <c r="M3" t="n">
-        <v>372.838412043471</v>
+        <v>167.3142646386704</v>
       </c>
       <c r="N3" t="n">
         <v>372.838412043471</v>
@@ -4434,25 +4434,25 @@
         <v>729.2310661278373</v>
       </c>
       <c r="S3" t="n">
-        <v>555.8137215785061</v>
+        <v>582.5368100739836</v>
       </c>
       <c r="T3" t="n">
-        <v>555.8137215785061</v>
+        <v>582.5368100739836</v>
       </c>
       <c r="U3" t="n">
-        <v>555.8137215785061</v>
+        <v>372.8396899792988</v>
       </c>
       <c r="V3" t="n">
-        <v>555.8137215785061</v>
+        <v>372.8396899792988</v>
       </c>
       <c r="W3" t="n">
-        <v>555.8137215785061</v>
+        <v>163.1425698846141</v>
       </c>
       <c r="X3" t="n">
-        <v>555.8137215785061</v>
+        <v>163.1425698846141</v>
       </c>
       <c r="Y3" t="n">
-        <v>508.2107878739453</v>
+        <v>163.1425698846141</v>
       </c>
     </row>
     <row r="4">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>436.0022521008685</v>
+        <v>226.3051320061838</v>
       </c>
       <c r="C5" t="n">
-        <v>436.0022521008685</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="D5" t="n">
-        <v>436.0022521008685</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="E5" t="n">
-        <v>436.0022521008685</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="F5" t="n">
-        <v>226.3051320061838</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="G5" t="n">
         <v>16.60801191149903</v>
@@ -4571,13 +4571,13 @@
         <v>119.6230178224214</v>
       </c>
       <c r="L5" t="n">
-        <v>180.4972953306516</v>
+        <v>299.69886940708</v>
       </c>
       <c r="M5" t="n">
-        <v>386.0214427354521</v>
+        <v>505.2230168118805</v>
       </c>
       <c r="N5" t="n">
-        <v>591.5455901402526</v>
+        <v>710.747164216681</v>
       </c>
       <c r="O5" t="n">
         <v>740.7405402829006</v>
@@ -4601,16 +4601,16 @@
         <v>830.4005955749516</v>
       </c>
       <c r="V5" t="n">
+        <v>830.4005955749516</v>
+      </c>
+      <c r="W5" t="n">
+        <v>830.4005955749516</v>
+      </c>
+      <c r="X5" t="n">
         <v>620.7034754802669</v>
       </c>
-      <c r="W5" t="n">
-        <v>436.0022521008685</v>
-      </c>
-      <c r="X5" t="n">
-        <v>436.0022521008685</v>
-      </c>
       <c r="Y5" t="n">
-        <v>436.0022521008685</v>
+        <v>411.0063553855821</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>246.5734595843968</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="C6" t="n">
-        <v>72.12043030326979</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="D6" t="n">
-        <v>16.60801191149903</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="E6" t="n">
-        <v>16.60801191149903</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="F6" t="n">
-        <v>16.60801191149903</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="G6" t="n">
-        <v>16.60801191149903</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="H6" t="n">
-        <v>16.60801191149903</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="I6" t="n">
-        <v>16.60801191149903</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="J6" t="n">
         <v>16.60801191149903</v>
@@ -4650,7 +4650,7 @@
         <v>141.9655719693364</v>
       </c>
       <c r="L6" t="n">
-        <v>347.4897193741369</v>
+        <v>236.7088231519997</v>
       </c>
       <c r="M6" t="n">
         <v>442.2329705568002</v>
@@ -4668,28 +4668,28 @@
         <v>830.4005955749516</v>
       </c>
       <c r="R6" t="n">
-        <v>830.4005955749516</v>
+        <v>729.2310661278373</v>
       </c>
       <c r="S6" t="n">
-        <v>830.4005955749516</v>
+        <v>555.8137215785061</v>
       </c>
       <c r="T6" t="n">
-        <v>830.4005955749516</v>
+        <v>436.7563847536542</v>
       </c>
       <c r="U6" t="n">
-        <v>830.4005955749516</v>
+        <v>227.0592646589695</v>
       </c>
       <c r="V6" t="n">
-        <v>830.4005955749516</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="W6" t="n">
-        <v>830.4005955749516</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="X6" t="n">
-        <v>622.5490953694188</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="Y6" t="n">
-        <v>414.7887966044648</v>
+        <v>17.36214456428474</v>
       </c>
     </row>
     <row r="7">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>201.3092352908974</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="C8" t="n">
-        <v>201.3092352908974</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="D8" t="n">
         <v>16.60801191149903</v>
@@ -4811,10 +4811,10 @@
         <v>299.69886940708</v>
       </c>
       <c r="M8" t="n">
-        <v>386.0214427354521</v>
+        <v>505.2230168118805</v>
       </c>
       <c r="N8" t="n">
-        <v>591.5455901402526</v>
+        <v>710.747164216681</v>
       </c>
       <c r="O8" t="n">
         <v>740.7405402829006</v>
@@ -4823,31 +4823,31 @@
         <v>830.4005955749516</v>
       </c>
       <c r="Q8" t="n">
-        <v>830.4005955749516</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="R8" t="n">
-        <v>830.4005955749516</v>
+        <v>668.9260327914218</v>
       </c>
       <c r="S8" t="n">
-        <v>830.4005955749516</v>
+        <v>459.228912696737</v>
       </c>
       <c r="T8" t="n">
-        <v>830.4005955749516</v>
+        <v>436.0022521008685</v>
       </c>
       <c r="U8" t="n">
-        <v>830.4005955749516</v>
+        <v>436.0022521008685</v>
       </c>
       <c r="V8" t="n">
-        <v>830.4005955749516</v>
+        <v>436.0022521008685</v>
       </c>
       <c r="W8" t="n">
-        <v>830.4005955749516</v>
+        <v>436.0022521008685</v>
       </c>
       <c r="X8" t="n">
-        <v>620.7034754802669</v>
+        <v>436.0022521008685</v>
       </c>
       <c r="Y8" t="n">
-        <v>411.0063553855821</v>
+        <v>226.3051320061838</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>246.5734595843968</v>
+        <v>143.4671088075516</v>
       </c>
       <c r="C9" t="n">
-        <v>246.5734595843968</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="D9" t="n">
-        <v>246.5734595843968</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="E9" t="n">
-        <v>246.5734595843968</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="F9" t="n">
-        <v>246.5734595843968</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="G9" t="n">
-        <v>221.0309092995489</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="H9" t="n">
-        <v>107.6617737071283</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="I9" t="n">
-        <v>17.36214456428474</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J9" t="n">
         <v>16.60801191149903</v>
@@ -4887,13 +4887,13 @@
         <v>141.9655719693364</v>
       </c>
       <c r="L9" t="n">
-        <v>141.9655719693364</v>
+        <v>347.4897193741369</v>
       </c>
       <c r="M9" t="n">
-        <v>167.3142646386704</v>
+        <v>553.0138667789374</v>
       </c>
       <c r="N9" t="n">
-        <v>372.838412043471</v>
+        <v>553.0138667789374</v>
       </c>
       <c r="O9" t="n">
         <v>578.3625594482714</v>
@@ -4905,28 +4905,28 @@
         <v>830.4005955749516</v>
       </c>
       <c r="R9" t="n">
-        <v>830.4005955749516</v>
+        <v>729.2310661278373</v>
       </c>
       <c r="S9" t="n">
-        <v>830.4005955749516</v>
+        <v>729.2310661278373</v>
       </c>
       <c r="T9" t="n">
-        <v>830.4005955749516</v>
+        <v>729.2310661278373</v>
       </c>
       <c r="U9" t="n">
-        <v>830.4005955749516</v>
+        <v>729.2310661278373</v>
       </c>
       <c r="V9" t="n">
-        <v>830.4005955749516</v>
+        <v>519.5339460331525</v>
       </c>
       <c r="W9" t="n">
-        <v>830.4005955749516</v>
+        <v>519.5339460331525</v>
       </c>
       <c r="X9" t="n">
-        <v>622.5490953694188</v>
+        <v>311.6824458276196</v>
       </c>
       <c r="Y9" t="n">
-        <v>414.7887966044648</v>
+        <v>311.6824458276196</v>
       </c>
     </row>
     <row r="10">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>249.5317926020523</v>
+        <v>226.3051320061838</v>
       </c>
       <c r="C11" t="n">
-        <v>249.5317926020523</v>
+        <v>226.3051320061838</v>
       </c>
       <c r="D11" t="n">
-        <v>249.5317926020523</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="E11" t="n">
-        <v>238.3751212532671</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="F11" t="n">
-        <v>28.67800115858238</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="G11" t="n">
-        <v>28.67800115858238</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="H11" t="n">
-        <v>28.67800115858238</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="I11" t="n">
-        <v>28.67800115858238</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J11" t="n">
         <v>16.60801191149903</v>
@@ -5048,43 +5048,43 @@
         <v>299.69886940708</v>
       </c>
       <c r="M11" t="n">
-        <v>505.2230168118805</v>
+        <v>475.681498027503</v>
       </c>
       <c r="N11" t="n">
-        <v>591.5455901402526</v>
+        <v>681.2056454323035</v>
       </c>
       <c r="O11" t="n">
-        <v>740.7405402829006</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="P11" t="n">
         <v>830.4005955749516</v>
       </c>
       <c r="Q11" t="n">
-        <v>820.3089802067245</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="R11" t="n">
-        <v>668.9260327914218</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="S11" t="n">
-        <v>668.9260327914218</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="T11" t="n">
-        <v>668.9260327914218</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="U11" t="n">
-        <v>668.9260327914218</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="V11" t="n">
-        <v>459.228912696737</v>
+        <v>645.6993721955532</v>
       </c>
       <c r="W11" t="n">
-        <v>459.228912696737</v>
+        <v>645.6993721955532</v>
       </c>
       <c r="X11" t="n">
-        <v>459.228912696737</v>
+        <v>645.6993721955532</v>
       </c>
       <c r="Y11" t="n">
-        <v>249.5317926020523</v>
+        <v>436.0022521008685</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>191.061041192626</v>
+        <v>353.2554303428154</v>
       </c>
       <c r="C12" t="n">
-        <v>16.60801191149903</v>
+        <v>178.8024010616884</v>
       </c>
       <c r="D12" t="n">
-        <v>16.60801191149903</v>
+        <v>107.6617737071283</v>
       </c>
       <c r="E12" t="n">
-        <v>16.60801191149903</v>
+        <v>107.6617737071283</v>
       </c>
       <c r="F12" t="n">
-        <v>16.60801191149903</v>
+        <v>107.6617737071283</v>
       </c>
       <c r="G12" t="n">
-        <v>16.60801191149903</v>
+        <v>107.6617737071283</v>
       </c>
       <c r="H12" t="n">
-        <v>16.60801191149903</v>
+        <v>107.6617737071283</v>
       </c>
       <c r="I12" t="n">
-        <v>16.60801191149903</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="J12" t="n">
         <v>16.60801191149903</v>
       </c>
       <c r="K12" t="n">
-        <v>141.9655719693364</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="L12" t="n">
-        <v>347.4897193741369</v>
+        <v>222.1321593162995</v>
       </c>
       <c r="M12" t="n">
-        <v>347.4897193741369</v>
+        <v>419.3523007653506</v>
       </c>
       <c r="N12" t="n">
-        <v>442.2329705568002</v>
+        <v>624.8764481701511</v>
       </c>
       <c r="O12" t="n">
-        <v>647.7571179616007</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="P12" t="n">
         <v>830.4005955749516</v>
@@ -5142,28 +5142,28 @@
         <v>830.4005955749516</v>
       </c>
       <c r="R12" t="n">
-        <v>830.4005955749516</v>
+        <v>729.2310661278373</v>
       </c>
       <c r="S12" t="n">
-        <v>830.4005955749516</v>
+        <v>729.2310661278373</v>
       </c>
       <c r="T12" t="n">
-        <v>830.4005955749516</v>
+        <v>729.2310661278373</v>
       </c>
       <c r="U12" t="n">
-        <v>830.4005955749516</v>
+        <v>729.2310661278373</v>
       </c>
       <c r="V12" t="n">
-        <v>830.4005955749516</v>
+        <v>729.2310661278373</v>
       </c>
       <c r="W12" t="n">
-        <v>774.8881771831809</v>
+        <v>729.2310661278373</v>
       </c>
       <c r="X12" t="n">
-        <v>567.0366769776481</v>
+        <v>729.2310661278373</v>
       </c>
       <c r="Y12" t="n">
-        <v>359.2763782126941</v>
+        <v>521.4707673628834</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151.1403024017698</v>
+        <v>148.3913723663086</v>
       </c>
       <c r="C13" t="n">
-        <v>151.1403024017698</v>
+        <v>148.3913723663086</v>
       </c>
       <c r="D13" t="n">
-        <v>151.1403024017698</v>
+        <v>148.3913723663086</v>
       </c>
       <c r="E13" t="n">
-        <v>151.1403024017698</v>
+        <v>148.3913723663086</v>
       </c>
       <c r="F13" t="n">
-        <v>151.1403024017698</v>
+        <v>148.3913723663086</v>
       </c>
       <c r="G13" t="n">
-        <v>151.1403024017698</v>
+        <v>148.3913723663086</v>
       </c>
       <c r="H13" t="n">
-        <v>39.10244809925949</v>
+        <v>148.3913723663086</v>
       </c>
       <c r="I13" t="n">
-        <v>39.10244809925949</v>
+        <v>133.4046502373128</v>
       </c>
       <c r="J13" t="n">
         <v>39.10244809925949</v>
@@ -5215,34 +5215,34 @@
         <v>151.1403024017698</v>
       </c>
       <c r="P13" t="n">
-        <v>151.1403024017698</v>
+        <v>148.3913723663086</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.1403024017698</v>
+        <v>148.3913723663086</v>
       </c>
       <c r="R13" t="n">
-        <v>151.1403024017698</v>
+        <v>148.3913723663086</v>
       </c>
       <c r="S13" t="n">
-        <v>151.1403024017698</v>
+        <v>148.3913723663086</v>
       </c>
       <c r="T13" t="n">
-        <v>151.1403024017698</v>
+        <v>148.3913723663086</v>
       </c>
       <c r="U13" t="n">
-        <v>151.1403024017698</v>
+        <v>148.3913723663086</v>
       </c>
       <c r="V13" t="n">
-        <v>151.1403024017698</v>
+        <v>148.3913723663086</v>
       </c>
       <c r="W13" t="n">
-        <v>151.1403024017698</v>
+        <v>148.3913723663086</v>
       </c>
       <c r="X13" t="n">
-        <v>151.1403024017698</v>
+        <v>148.3913723663086</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.1403024017698</v>
+        <v>148.3913723663086</v>
       </c>
     </row>
     <row r="14">
@@ -5282,7 +5282,7 @@
         <v>16.60801191149903</v>
       </c>
       <c r="L14" t="n">
-        <v>180.4972953306516</v>
+        <v>196.6838634961576</v>
       </c>
       <c r="M14" t="n">
         <v>386.0214427354521</v>
@@ -5297,31 +5297,31 @@
         <v>830.4005955749516</v>
       </c>
       <c r="Q14" t="n">
-        <v>830.4005955749516</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="R14" t="n">
-        <v>830.4005955749516</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="S14" t="n">
-        <v>830.4005955749516</v>
+        <v>610.6118601120397</v>
       </c>
       <c r="T14" t="n">
-        <v>830.4005955749516</v>
+        <v>448.0722413479519</v>
       </c>
       <c r="U14" t="n">
-        <v>830.4005955749516</v>
+        <v>448.0722413479519</v>
       </c>
       <c r="V14" t="n">
-        <v>830.4005955749516</v>
+        <v>448.0722413479519</v>
       </c>
       <c r="W14" t="n">
-        <v>830.4005955749516</v>
+        <v>448.0722413479519</v>
       </c>
       <c r="X14" t="n">
-        <v>657.7693614426366</v>
+        <v>448.0722413479519</v>
       </c>
       <c r="Y14" t="n">
-        <v>657.7693614426366</v>
+        <v>448.0722413479519</v>
       </c>
     </row>
     <row r="15">
@@ -5361,13 +5361,13 @@
         <v>141.9655719693364</v>
       </c>
       <c r="L15" t="n">
-        <v>347.4897193741369</v>
+        <v>167.3142646386704</v>
       </c>
       <c r="M15" t="n">
-        <v>553.0138667789374</v>
+        <v>372.838412043471</v>
       </c>
       <c r="N15" t="n">
-        <v>553.0138667789374</v>
+        <v>372.838412043471</v>
       </c>
       <c r="O15" t="n">
         <v>578.3625594482714</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151.1403024017698</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="C16" t="n">
-        <v>151.1403024017698</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="D16" t="n">
-        <v>151.1403024017698</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="E16" t="n">
-        <v>151.1403024017698</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="F16" t="n">
-        <v>151.1403024017698</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="G16" t="n">
-        <v>151.1403024017698</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="H16" t="n">
-        <v>151.1403024017698</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="I16" t="n">
-        <v>133.4046502373128</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J16" t="n">
-        <v>39.10244809925949</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K16" t="n">
         <v>16.60801191149903</v>
@@ -5452,34 +5452,34 @@
         <v>151.1403024017698</v>
       </c>
       <c r="P16" t="n">
-        <v>151.1403024017698</v>
+        <v>148.3913723663086</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.1403024017698</v>
+        <v>61.35900544540522</v>
       </c>
       <c r="R16" t="n">
-        <v>151.1403024017698</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="S16" t="n">
-        <v>151.1403024017698</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="T16" t="n">
-        <v>151.1403024017698</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="U16" t="n">
-        <v>151.1403024017698</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="V16" t="n">
-        <v>151.1403024017698</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="W16" t="n">
-        <v>151.1403024017698</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="X16" t="n">
-        <v>151.1403024017698</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.1403024017698</v>
+        <v>16.60801191149903</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>830.4005955749516</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="C17" t="n">
-        <v>830.4005955749516</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="D17" t="n">
-        <v>830.4005955749516</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="E17" t="n">
-        <v>830.4005955749516</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="F17" t="n">
-        <v>657.7693614426366</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="G17" t="n">
-        <v>448.0722413479519</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="H17" t="n">
-        <v>238.3751212532671</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="I17" t="n">
-        <v>28.67800115858238</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J17" t="n">
         <v>16.60801191149903</v>
       </c>
       <c r="K17" t="n">
-        <v>90.08149903804397</v>
+        <v>119.6230178224214</v>
       </c>
       <c r="L17" t="n">
-        <v>270.1573506227026</v>
+        <v>299.69886940708</v>
       </c>
       <c r="M17" t="n">
-        <v>475.681498027503</v>
+        <v>386.0214427354521</v>
       </c>
       <c r="N17" t="n">
-        <v>681.2056454323035</v>
+        <v>591.5455901402526</v>
       </c>
       <c r="O17" t="n">
-        <v>830.4005955749516</v>
+        <v>740.7405402829006</v>
       </c>
       <c r="P17" t="n">
         <v>830.4005955749516</v>
       </c>
       <c r="Q17" t="n">
-        <v>830.4005955749516</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="R17" t="n">
-        <v>830.4005955749516</v>
+        <v>668.9260327914218</v>
       </c>
       <c r="S17" t="n">
-        <v>830.4005955749516</v>
+        <v>459.228912696737</v>
       </c>
       <c r="T17" t="n">
-        <v>830.4005955749516</v>
+        <v>249.5317926020523</v>
       </c>
       <c r="U17" t="n">
-        <v>830.4005955749516</v>
+        <v>39.83467250736754</v>
       </c>
       <c r="V17" t="n">
-        <v>830.4005955749516</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="W17" t="n">
-        <v>830.4005955749516</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="X17" t="n">
-        <v>830.4005955749516</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="Y17" t="n">
-        <v>830.4005955749516</v>
+        <v>16.60801191149903</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>830.4005955749516</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="C18" t="n">
-        <v>724.1685282139117</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="D18" t="n">
-        <v>575.2341185526604</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="E18" t="n">
-        <v>415.996663547205</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="F18" t="n">
-        <v>269.4621055740899</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="G18" t="n">
-        <v>130.7312801567054</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="H18" t="n">
         <v>17.36214456428474</v>
@@ -5598,46 +5598,46 @@
         <v>141.9655719693364</v>
       </c>
       <c r="L18" t="n">
-        <v>347.4897193741369</v>
+        <v>236.7088231519997</v>
       </c>
       <c r="M18" t="n">
-        <v>553.0138667789374</v>
+        <v>442.2329705568002</v>
       </c>
       <c r="N18" t="n">
-        <v>555.4818896568217</v>
+        <v>442.2329705568002</v>
       </c>
       <c r="O18" t="n">
-        <v>761.0060370616222</v>
+        <v>647.7571179616007</v>
       </c>
       <c r="P18" t="n">
-        <v>761.0060370616222</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="Q18" t="n">
         <v>830.4005955749516</v>
       </c>
       <c r="R18" t="n">
-        <v>830.4005955749516</v>
+        <v>729.2310661278373</v>
       </c>
       <c r="S18" t="n">
-        <v>830.4005955749516</v>
+        <v>555.8137215785061</v>
       </c>
       <c r="T18" t="n">
-        <v>830.4005955749516</v>
+        <v>353.6271269372722</v>
       </c>
       <c r="U18" t="n">
-        <v>830.4005955749516</v>
+        <v>143.9300068425874</v>
       </c>
       <c r="V18" t="n">
-        <v>830.4005955749516</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="W18" t="n">
-        <v>830.4005955749516</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="X18" t="n">
-        <v>830.4005955749516</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="Y18" t="n">
-        <v>830.4005955749516</v>
+        <v>17.36214456428474</v>
       </c>
     </row>
     <row r="19">
@@ -5698,10 +5698,10 @@
         <v>151.1403024017698</v>
       </c>
       <c r="S19" t="n">
-        <v>16.60801191149903</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="T19" t="n">
-        <v>16.60801191149903</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="U19" t="n">
         <v>16.60801191149903</v>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>475.3318284112885</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C20" t="n">
         <v>231.8830517671884</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>929.9119884758385</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>718.7806050553886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>718.7806050553886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U20" t="n">
-        <v>718.7806050553886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V20" t="n">
-        <v>475.3318284112885</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W20" t="n">
-        <v>475.3318284112885</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X20" t="n">
-        <v>475.3318284112885</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y20" t="n">
-        <v>475.3318284112885</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5841,7 +5841,7 @@
         <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>23.90796037760316</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>23.90796037760316</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>500.6814290152826</v>
       </c>
     </row>
     <row r="22">
@@ -5932,10 +5932,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
         <v>19.28114311021272</v>
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>231.8830517671884</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6017,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>718.7806050553886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>475.3318284112885</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.4352409821462</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="C24" t="n">
-        <v>168.215552771464</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>164.5602360679176</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6072,7 +6072,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M24" t="n">
         <v>304.2053859195205</v>
@@ -6093,25 +6093,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V24" t="n">
-        <v>627.7355178317791</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W24" t="n">
-        <v>384.2867411876791</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X24" t="n">
-        <v>176.4352409821462</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y24" t="n">
-        <v>176.4352409821462</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6257,19 +6257,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>168.215552771464</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C27" t="n">
-        <v>168.215552771464</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>842.0745423204089</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>639.887947679175</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>411.6643294155641</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V27" t="n">
-        <v>411.6643294155641</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W27" t="n">
-        <v>168.215552771464</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X27" t="n">
-        <v>168.215552771464</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y27" t="n">
-        <v>168.215552771464</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="28">
@@ -6406,13 +6406,13 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R28" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>40.6788758079141</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C29" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6491,22 @@
         <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>527.5764290961142</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U29" t="n">
-        <v>284.1276524520142</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V29" t="n">
-        <v>284.1276524520142</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W29" t="n">
-        <v>284.1276524520142</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X29" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>248.3115976704407</v>
+        <v>90.73453560909468</v>
       </c>
       <c r="C30" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6546,13 +6546,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W30" t="n">
-        <v>619.4388494194218</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X30" t="n">
-        <v>416.5269346905088</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y30" t="n">
-        <v>416.5269346905088</v>
+        <v>90.73453560909468</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203655</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
         <v>19.28114311021272</v>
@@ -6734,16 +6734,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>298.4948343740486</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="C33" t="n">
-        <v>298.4948343740486</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="D33" t="n">
-        <v>178.5185981156682</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6807,22 +6807,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>298.4948343740486</v>
+        <v>907.3721732850274</v>
       </c>
       <c r="W33" t="n">
-        <v>298.4948343740486</v>
+        <v>663.9233966409274</v>
       </c>
       <c r="X33" t="n">
-        <v>298.4948343740486</v>
+        <v>456.0718964353946</v>
       </c>
       <c r="Y33" t="n">
-        <v>298.4948343740486</v>
+        <v>248.3115976704407</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
         <v>829.5248650203655</v>
@@ -6895,13 +6895,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>251.810259228364</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C35" t="n">
         <v>19.28114311021272</v>
@@ -6965,22 +6965,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V35" t="n">
-        <v>495.259035872464</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W35" t="n">
-        <v>495.259035872464</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X35" t="n">
-        <v>251.810259228364</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y35" t="n">
-        <v>251.810259228364</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
         <v>19.28114311021272</v>
@@ -7017,19 +7017,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7044,22 +7044,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U36" t="n">
-        <v>571.5829980232747</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V36" t="n">
-        <v>336.430889791532</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W36" t="n">
-        <v>336.430889791532</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X36" t="n">
-        <v>336.430889791532</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>336.430889791532</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E38" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F38" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7202,22 +7202,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>429.2157613146156</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7254,22 +7254,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>588.4532163200711</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V39" t="n">
-        <v>588.4532163200711</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W39" t="n">
-        <v>588.4532163200711</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>588.4532163200711</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7430,28 +7430,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U41" t="n">
-        <v>720.6083788665362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V41" t="n">
-        <v>477.1596022224361</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W41" t="n">
-        <v>233.7108255783361</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X41" t="n">
-        <v>19.28114311021272</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="Y41" t="n">
         <v>19.28114311021272</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>353.7257600495809</v>
+        <v>243.4632136343998</v>
       </c>
       <c r="C42" t="n">
-        <v>179.2727307684539</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="D42" t="n">
-        <v>179.2727307684539</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="I42" t="n">
         <v>20.03527576299844</v>
@@ -7491,49 +7491,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X42" t="n">
-        <v>720.6083788665362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y42" t="n">
-        <v>512.8480801015824</v>
+        <v>411.6785506544679</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.60801191149903</v>
+        <v>610.6118601120397</v>
       </c>
       <c r="C44" t="n">
-        <v>16.60801191149903</v>
+        <v>610.6118601120397</v>
       </c>
       <c r="D44" t="n">
-        <v>16.60801191149903</v>
+        <v>610.6118601120397</v>
       </c>
       <c r="E44" t="n">
-        <v>16.60801191149903</v>
+        <v>400.914740017355</v>
       </c>
       <c r="F44" t="n">
-        <v>16.60801191149903</v>
+        <v>191.2176199226702</v>
       </c>
       <c r="G44" t="n">
-        <v>16.60801191149903</v>
+        <v>191.2176199226702</v>
       </c>
       <c r="H44" t="n">
-        <v>16.60801191149903</v>
+        <v>191.2176199226702</v>
       </c>
       <c r="I44" t="n">
-        <v>16.60801191149903</v>
+        <v>28.67800115858238</v>
       </c>
       <c r="J44" t="n">
         <v>16.60801191149903</v>
       </c>
       <c r="K44" t="n">
-        <v>16.60801191149903</v>
+        <v>119.6230178224214</v>
       </c>
       <c r="L44" t="n">
-        <v>180.4972953306516</v>
+        <v>299.69886940708</v>
       </c>
       <c r="M44" t="n">
-        <v>386.0214427354521</v>
+        <v>475.681498027503</v>
       </c>
       <c r="N44" t="n">
-        <v>591.5455901402526</v>
+        <v>681.2056454323035</v>
       </c>
       <c r="O44" t="n">
-        <v>740.7405402829006</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="P44" t="n">
         <v>830.4005955749516</v>
@@ -7682,16 +7682,16 @@
         <v>820.3089802067245</v>
       </c>
       <c r="V44" t="n">
-        <v>610.6118601120397</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="W44" t="n">
-        <v>400.914740017355</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="X44" t="n">
-        <v>400.914740017355</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="Y44" t="n">
-        <v>191.2176199226702</v>
+        <v>820.3089802067245</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>645.7674638324478</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="C45" t="n">
-        <v>471.3144345513208</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="D45" t="n">
-        <v>322.3800248900695</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="E45" t="n">
-        <v>163.1425698846141</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="F45" t="n">
         <v>16.60801191149903</v>
@@ -7728,19 +7728,19 @@
         <v>16.60801191149903</v>
       </c>
       <c r="K45" t="n">
-        <v>141.9655719693364</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="L45" t="n">
-        <v>141.9655719693364</v>
+        <v>31.18467574719915</v>
       </c>
       <c r="M45" t="n">
-        <v>347.4897193741369</v>
+        <v>236.7088231519997</v>
       </c>
       <c r="N45" t="n">
-        <v>553.0138667789374</v>
+        <v>442.2329705568002</v>
       </c>
       <c r="O45" t="n">
-        <v>758.5380141837379</v>
+        <v>647.7571179616007</v>
       </c>
       <c r="P45" t="n">
         <v>830.4005955749516</v>
@@ -7758,19 +7758,19 @@
         <v>656.9832510256205</v>
       </c>
       <c r="U45" t="n">
-        <v>656.9832510256205</v>
+        <v>447.2861309309357</v>
       </c>
       <c r="V45" t="n">
-        <v>656.9832510256205</v>
+        <v>447.2861309309357</v>
       </c>
       <c r="W45" t="n">
-        <v>656.9832510256205</v>
+        <v>237.589010836251</v>
       </c>
       <c r="X45" t="n">
-        <v>656.9832510256205</v>
+        <v>29.73751063071813</v>
       </c>
       <c r="Y45" t="n">
-        <v>656.9832510256205</v>
+        <v>16.60801191149903</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>151.1403024017698</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="C46" t="n">
-        <v>151.1403024017698</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="D46" t="n">
-        <v>151.1403024017698</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="E46" t="n">
-        <v>151.1403024017698</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="F46" t="n">
         <v>16.60801191149903</v>
@@ -7837,19 +7837,19 @@
         <v>151.1403024017698</v>
       </c>
       <c r="U46" t="n">
-        <v>151.1403024017698</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="V46" t="n">
-        <v>151.1403024017698</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="W46" t="n">
-        <v>151.1403024017698</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="X46" t="n">
-        <v>151.1403024017698</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="Y46" t="n">
-        <v>151.1403024017698</v>
+        <v>16.60801191149903</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>401.3111456964039</v>
       </c>
       <c r="M2" t="n">
         <v>437.9463821210106</v>
@@ -7991,7 +7991,7 @@
         <v>437.0132124903288</v>
       </c>
       <c r="O2" t="n">
-        <v>260.3945508825146</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>346.154528673612</v>
+        <v>290.7829178881282</v>
       </c>
       <c r="M3" t="n">
-        <v>167.7387739920527</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>338.9418609770712</v>
       </c>
       <c r="O3" t="n">
         <v>350.1963933381824</v>
@@ -8219,7 +8219,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>297.2555841702197</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>437.9463821210106</v>
@@ -8228,7 +8228,7 @@
         <v>437.0132124903288</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>260.3945508825146</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8298,10 +8298,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>346.154528673612</v>
+        <v>234.254633499736</v>
       </c>
       <c r="M6" t="n">
-        <v>237.8342876418802</v>
+        <v>349.7341828157562</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8459,13 +8459,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>317.5407517407799</v>
+        <v>437.9463821210106</v>
       </c>
       <c r="N8" t="n">
         <v>437.0132124903288</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>260.3945508825146</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8535,16 +8535,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>346.154528673612</v>
       </c>
       <c r="M9" t="n">
-        <v>167.7387739920527</v>
+        <v>349.7341828157562</v>
       </c>
       <c r="N9" t="n">
-        <v>338.9418609770712</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>350.1963933381824</v>
+        <v>168.2009845144788</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8696,16 +8696,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>437.9463821210106</v>
+        <v>408.106464156993</v>
       </c>
       <c r="N11" t="n">
-        <v>316.6075821100981</v>
+        <v>437.0132124903288</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>346.154528673612</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>341.3462980119689</v>
       </c>
       <c r="N12" t="n">
-        <v>227.0419658031952</v>
+        <v>338.9418609770712</v>
       </c>
       <c r="O12" t="n">
         <v>350.1963933381824</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8930,10 +8930,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>401.3111456964039</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>437.9463821210106</v>
+        <v>421.5963132669641</v>
       </c>
       <c r="N14" t="n">
         <v>437.0132124903288</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>346.154528673612</v>
+        <v>164.1591198499085</v>
       </c>
       <c r="M15" t="n">
         <v>349.7341828157562</v>
@@ -9018,7 +9018,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>168.2009845144788</v>
+        <v>350.1963933381824</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9164,13 +9164,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>294.3054946071471</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>437.9463821210106</v>
+        <v>317.5407517407799</v>
       </c>
       <c r="N17" t="n">
         <v>437.0132124903288</v>
@@ -9179,7 +9179,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,22 +9246,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>346.154528673612</v>
+        <v>234.254633499736</v>
       </c>
       <c r="M18" t="n">
         <v>349.7341828157562</v>
       </c>
       <c r="N18" t="n">
-        <v>133.8346644852367</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>350.1963933381824</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9489,10 +9489,10 @@
         <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9720,10 +9720,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M24" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9954,19 +9954,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10194,16 +10194,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10917,10 +10917,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,13 +11297,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>401.3111456964039</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>437.9463821210106</v>
+        <v>408.106464156993</v>
       </c>
       <c r="N44" t="n">
         <v>437.0132124903288</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>153.2782826442177</v>
       </c>
       <c r="M45" t="n">
         <v>349.7341828157562</v>
@@ -11391,7 +11391,7 @@
         <v>350.1963933381824</v>
       </c>
       <c r="P45" t="n">
-        <v>206.5628734660612</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22562,7 +22562,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>306.4897089113126</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22589,10 +22589,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>1.419920692507446</v>
@@ -22601,19 +22601,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>78.48214097677703</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>141.6408198236751</v>
       </c>
       <c r="X2" t="n">
         <v>162.1309517847311</v>
       </c>
       <c r="Y2" t="n">
-        <v>178.6377897623157</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,19 +22623,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22674,25 +22674,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>26.45585761052268</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>18.34123318723692</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>44.09483426718171</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>158.5557914097892</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22781,10 +22781,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>199.8796305178762</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>157.6727428772697</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22793,10 +22793,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>199.2758968479735</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>207.7025886213972</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22841,16 +22841,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>120.152109576397</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>166.3867575718087</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>162.1309517847311</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>178.6377897623157</v>
       </c>
     </row>
     <row r="6">
@@ -22860,13 +22860,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>92.48777135678571</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22884,7 +22884,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,28 +22908,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>82.29796523821821</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>18.34123318723692</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>25.20043825568737</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -23024,7 +23024,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>171.8288304750786</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23063,16 +23063,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>1.419920692507446</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>200.1014555742215</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23084,7 +23084,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>162.1309517847311</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>178.6377897623157</v>
@@ -23100,7 +23100,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>47.11799306122371</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23112,16 +23112,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>112.0563923812113</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23157,7 +23157,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>25.20043825568737</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23166,7 +23166,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>175.1336927697427</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>147.0828927269451</v>
       </c>
       <c r="E11" t="n">
-        <v>370.8852654369645</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>199.2758968479735</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23279,7 +23279,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,10 +23300,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23315,7 +23315,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>120.152109576397</v>
+        <v>144.8980473245306</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23340,7 +23340,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>77.01584448362426</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23355,10 +23355,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23397,10 +23397,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>196.7376889530667</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23431,13 +23431,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>51.30969674795442</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,7 +23455,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>175.1336927697427</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23537,16 +23537,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>1.419920692507446</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>62.18162698768441</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23558,7 +23558,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>198.8261788874773</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>235.9711239507197</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>207.7025886213972</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>131.8746532220293</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>2.875740676668016</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>1.419920692507446</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>15.49570067039346</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>43.7455040140986</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>304.7578644802251</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,22 +23811,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>67.53875230088627</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23856,19 +23856,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>18.34123318723692</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>107.4984034939056</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23938,13 +23938,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>272.3182247614621</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24011,13 +24011,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>126.0561017912447</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>97.1709424589562</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24054,16 +24054,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24093,13 +24093,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24111,7 +24111,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>201.1924361087609</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24172,13 +24172,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24224,7 +24224,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24257,10 +24257,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2863534910952</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>145.2236497783945</v>
@@ -24282,16 +24282,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>164.5710076597403</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>13.81877842727314</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24333,7 +24333,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24342,16 +24342,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24415,10 +24415,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24455,10 +24455,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24497,19 +24497,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24525,7 +24525,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24534,16 +24534,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>102.3410493332382</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,10 +24567,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>50.92038404551279</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24582,7 +24582,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24655,7 +24655,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>242.0155457579237</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,25 +24677,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>360.7466147015374</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24731,10 +24731,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24743,7 +24743,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>366.4657846212724</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>101.9696404144226</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,13 +24771,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24804,28 +24804,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>4.890189621853608</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24880,7 +24880,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24889,10 +24889,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228172</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24923,7 +24923,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24974,16 +24974,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X32" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24999,22 +24999,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>28.6685916688422</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25047,22 +25047,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>176.6824547460726</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,7 +25154,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>135.0690668140378</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25205,10 +25205,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>86.73796959247585</v>
@@ -25230,13 +25230,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25284,19 +25284,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U36" t="n">
-        <v>37.55669486330865</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25315,7 +25315,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25363,7 +25363,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25388,22 +25388,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25412,7 +25412,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25442,13 +25442,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>109.4977228677776</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25476,19 +25476,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>78.20953462214725</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25518,25 +25518,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25612,7 +25612,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25670,31 +25670,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>157.4457150350269</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>151.9490329357426</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>9.002086798385932</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25713,7 +25713,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25725,7 +25725,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>40.91147334704344</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25840,10 +25840,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>209.8703297324211</v>
+        <v>175.1336927697427</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,10 +25871,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>174.3302211785239</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>199.2758968479735</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25883,10 +25883,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>49.56166699395897</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25922,16 +25922,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>120.152109576397</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>141.6408198236751</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>178.6377897623157</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,19 +25941,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>155.4295543286264</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25998,19 +25998,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>18.34123318723692</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>44.09483426718171</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>192.6844920452774</v>
       </c>
     </row>
     <row r="46">
@@ -26032,7 +26032,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26077,7 +26077,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>466839.2206462251</v>
+        <v>466839.2206462253</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>466839.2206462251</v>
+        <v>466839.2206462253</v>
       </c>
     </row>
     <row r="4">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="16">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87037.82079844867</v>
+        <v>87037.82079844869</v>
       </c>
       <c r="C2" t="n">
         <v>87037.82079844871</v>
       </c>
       <c r="D2" t="n">
-        <v>87037.82079844869</v>
+        <v>87037.82079844868</v>
       </c>
       <c r="E2" t="n">
-        <v>87037.82079844868</v>
+        <v>87037.82079844871</v>
       </c>
       <c r="F2" t="n">
         <v>87037.82079844868</v>
@@ -26329,28 +26329,28 @@
         <v>87037.82079844871</v>
       </c>
       <c r="H2" t="n">
-        <v>91388.36989223286</v>
+        <v>91388.36989223285</v>
       </c>
       <c r="I2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="J2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="K2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="L2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>91388.3698922328</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>91388.3698922328</v>
-      </c>
-      <c r="N2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="O2" t="n">
-        <v>91388.36989223279</v>
       </c>
       <c r="P2" t="n">
         <v>87037.82079844871</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69571.58469771613</v>
+        <v>69571.58469771611</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>544.189733870156</v>
+        <v>155.3204093616783</v>
       </c>
       <c r="C4" t="n">
-        <v>544.1897338701561</v>
+        <v>155.3204093616783</v>
       </c>
       <c r="D4" t="n">
-        <v>544.1897338701561</v>
+        <v>155.3204093616783</v>
       </c>
       <c r="E4" t="n">
-        <v>544.189733870156</v>
+        <v>155.3204093616783</v>
       </c>
       <c r="F4" t="n">
-        <v>544.189733870156</v>
+        <v>155.3204093616783</v>
       </c>
       <c r="G4" t="n">
-        <v>544.1897338701561</v>
+        <v>155.3204093616783</v>
       </c>
       <c r="H4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>544.1897338701561</v>
+        <v>155.3204093616783</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29327.64268587688</v>
+        <v>-28938.77336136836</v>
       </c>
       <c r="C6" t="n">
-        <v>40243.9420118393</v>
+        <v>40632.81133634777</v>
       </c>
       <c r="D6" t="n">
-        <v>40243.94201183928</v>
+        <v>40632.81133634774</v>
       </c>
       <c r="E6" t="n">
-        <v>73871.54201183926</v>
+        <v>74260.41133634777</v>
       </c>
       <c r="F6" t="n">
-        <v>73871.54201183926</v>
+        <v>74260.41133634774</v>
       </c>
       <c r="G6" t="n">
-        <v>73871.54201183929</v>
+        <v>74260.41133634777</v>
       </c>
       <c r="H6" t="n">
-        <v>67131.15976340215</v>
+        <v>67539.73293584542</v>
       </c>
       <c r="I6" t="n">
-        <v>76146.59545832386</v>
+        <v>76555.16863076716</v>
       </c>
       <c r="J6" t="n">
-        <v>21829.26210117074</v>
+        <v>22237.83527361401</v>
       </c>
       <c r="K6" t="n">
-        <v>76146.59545832389</v>
+        <v>76555.16863076716</v>
       </c>
       <c r="L6" t="n">
-        <v>76146.59545832388</v>
+        <v>76555.16863076718</v>
       </c>
       <c r="M6" t="n">
-        <v>76146.59545832388</v>
+        <v>76555.16863076718</v>
       </c>
       <c r="N6" t="n">
-        <v>76146.59545832389</v>
+        <v>76555.16863076716</v>
       </c>
       <c r="O6" t="n">
-        <v>76146.59545832386</v>
+        <v>76555.16863076716</v>
       </c>
       <c r="P6" t="n">
-        <v>73871.54201183929</v>
+        <v>74260.41133634777</v>
       </c>
     </row>
   </sheetData>
@@ -34699,10 +34699,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>165.5447307264167</v>
       </c>
       <c r="M2" t="n">
         <v>207.6001488937379</v>
@@ -34711,7 +34711,7 @@
         <v>207.6001488937379</v>
       </c>
       <c r="O2" t="n">
-        <v>30.29633946082792</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>152.228538108254</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>207.6001488937379</v>
-      </c>
-      <c r="M3" t="n">
-        <v>25.60474007003436</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>207.6001488937379</v>
@@ -34939,7 +34939,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>61.48916920023249</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
         <v>207.6001488937379</v>
@@ -34948,7 +34948,7 @@
         <v>207.6001488937379</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>30.29633946082792</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35018,10 +35018,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
+        <v>95.70025371986186</v>
+      </c>
+      <c r="M6" t="n">
         <v>207.6001488937379</v>
-      </c>
-      <c r="M6" t="n">
-        <v>95.70025371986186</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35179,13 +35179,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>87.19451851350715</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="N8" t="n">
         <v>207.6001488937379</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>30.29633946082792</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35255,16 +35255,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="M9" t="n">
+        <v>207.6001488937379</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>25.60474007003436</v>
-      </c>
-      <c r="N9" t="n">
-        <v>207.6001488937379</v>
-      </c>
-      <c r="O9" t="n">
-        <v>207.6001488937379</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35416,16 +35416,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
+        <v>177.7602309297203</v>
+      </c>
+      <c r="N11" t="n">
         <v>207.6001488937379</v>
-      </c>
-      <c r="N11" t="n">
-        <v>87.19451851350715</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>207.6001488937379</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>199.2122640899506</v>
       </c>
       <c r="N12" t="n">
-        <v>95.70025371986186</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="O12" t="n">
         <v>207.6001488937379</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35650,10 +35650,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>165.5447307264167</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>207.6001488937379</v>
+        <v>191.2500800396914</v>
       </c>
       <c r="N14" t="n">
         <v>207.6001488937379</v>
@@ -35729,7 +35729,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>207.6001488937379</v>
+        <v>25.60474007003436</v>
       </c>
       <c r="M15" t="n">
         <v>207.6001488937379</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>25.60474007003436</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35884,13 +35884,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>74.2156435621666</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>207.6001488937379</v>
+        <v>87.19451851350715</v>
       </c>
       <c r="N17" t="n">
         <v>207.6001488937379</v>
@@ -35899,7 +35899,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>207.6001488937379</v>
+        <v>95.70025371986186</v>
       </c>
       <c r="M18" t="n">
         <v>207.6001488937379</v>
       </c>
       <c r="N18" t="n">
-        <v>2.492952401903357</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>207.6001488937379</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36209,10 +36209,10 @@
         <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M24" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36674,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36914,16 +36914,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37637,10 +37637,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37877,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>165.5447307264167</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>207.6001488937379</v>
+        <v>177.7602309297203</v>
       </c>
       <c r="N44" t="n">
         <v>207.6001488937379</v>
@@ -38032,7 +38032,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,10 +38096,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>14.72390286434356</v>
       </c>
       <c r="M45" t="n">
         <v>207.6001488937379</v>
@@ -38111,7 +38111,7 @@
         <v>207.6001488937379</v>
       </c>
       <c r="P45" t="n">
-        <v>72.58846605173098</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>437681.954294145</v>
+        <v>438677.708165228</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1207873.763444806</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18603869.05421057</v>
+        <v>18548951.26311751</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5527249.805290964</v>
+        <v>5537000.186932486</v>
       </c>
     </row>
     <row r="11">
@@ -701,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>47.13383555196372</v>
       </c>
       <c r="U2" t="n">
-        <v>172.8635119310595</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X2" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>145.2273134933151</v>
+        <v>47.13383555196372</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W3" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>3.89241773958567</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>182.8542111456044</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C5" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,19 +1025,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>117.8667634566034</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="U6" t="n">
-        <v>207.6001488937379</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>207.6001488937379</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1175,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>22.99439398990982</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>125.590505927092</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -1367,31 +1369,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1427,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>182.8542111456044</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>70.42922108101449</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>17.64958753804059</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -1515,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1613,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>81.00537765493296</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>207.6001488937379</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1649,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>160.9142225764469</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1683,22 +1685,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>15.77311383601439</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>94.41066626107992</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1780,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>22.99439398990983</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,22 +1922,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>87.68958101214699</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1944,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>125.3021836555197</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1989,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2053,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2081,13 +2083,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>92.95466700954542</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2123,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2138,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>69.36224119091113</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2.312499047146208</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,19 +2210,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2290,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>241.0142888776591</v>
@@ -2369,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,31 +2396,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>143.8263020281278</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2.0098619503299</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,16 +2447,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2463,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2515,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2530,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2555,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2576,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2609,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>212.285385643442</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2637,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>96.52468151912586</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2646,16 +2648,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>35.00246782997241</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -2694,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2752,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>44.30348359856715</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>241.0142888776591</v>
+        <v>234.288905720311</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2804,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2846,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,31 +2870,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>70.73885857389313</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>52.77617736754802</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2925,10 +2927,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2937,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2992,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3001,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U31" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3074,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3089,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>241.0142888776591</v>
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3120,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3165,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>56.1181324033527</v>
+        <v>4.089654531614567</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3208,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3287,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,13 +3310,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3326,10 +3328,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>222.3396163656984</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3351,10 +3353,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>130.8214584712332</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3396,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>29.79900896488251</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3427,58 +3429,58 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,31 +3502,31 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3554,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>218.2545356023573</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3594,16 +3596,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>55.26115413364287</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3712,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3782,10 +3784,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>234.288905720311</v>
       </c>
     </row>
     <row r="42">
@@ -3822,7 +3824,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>48.48515950437164</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3882,7 +3884,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>1.197928092376154</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3995,10 +3997,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>160.9142225764469</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>207.6001488937379</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>12.99820373202691</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>180.4972953306516</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M2" t="n">
-        <v>386.0214427354521</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>591.5455901402526</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>740.7405402829006</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
-        <v>830.4005955749516</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>820.3089802067245</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>820.3089802067245</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>610.6118601120397</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T2" t="n">
-        <v>610.6118601120397</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="U2" t="n">
-        <v>436.0022521008685</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="V2" t="n">
-        <v>436.0022521008685</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="W2" t="n">
-        <v>226.3051320061838</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="X2" t="n">
-        <v>16.60801191149903</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>163.1425698846141</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C3" t="n">
-        <v>163.1425698846141</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D3" t="n">
-        <v>163.1425698846141</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E3" t="n">
-        <v>163.1425698846141</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>167.3142646386704</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
-        <v>167.3142646386704</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="N3" t="n">
-        <v>372.838412043471</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="O3" t="n">
-        <v>578.3625594482714</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="P3" t="n">
-        <v>761.0060370616222</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="Q3" t="n">
-        <v>830.4005955749516</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>729.2310661278373</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>582.5368100739836</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="T3" t="n">
-        <v>582.5368100739836</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="U3" t="n">
-        <v>372.8396899792988</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="V3" t="n">
-        <v>372.8396899792988</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="W3" t="n">
-        <v>163.1425698846141</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="X3" t="n">
-        <v>163.1425698846141</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y3" t="n">
-        <v>163.1425698846141</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="C4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="D4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="E4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="F4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="G4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="H4" t="n">
-        <v>151.1403024017698</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="I4" t="n">
-        <v>133.4046502373128</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="J4" t="n">
-        <v>39.10244809925949</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>43.92213691921201</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>83.11017511143419</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>126.8010257668705</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="W4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="X4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>226.3051320061838</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>16.60801191149903</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>119.6230178224214</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>299.69886940708</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>505.2230168118805</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>710.747164216681</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>740.7405402829006</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>620.7034754802669</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>411.0063553855821</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.36214456428474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>17.36214456428474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>17.36214456428474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>17.36214456428474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>17.36214456428474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>17.36214456428474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>17.36214456428474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>17.36214456428474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>141.9655719693364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>236.7088231519997</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>442.2329705568002</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>442.2329705568002</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>647.7571179616007</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>830.4005955749516</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>729.2310661278373</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>555.8137215785061</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>436.7563847536542</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U6" t="n">
-        <v>227.0592646589695</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V6" t="n">
-        <v>17.36214456428474</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W6" t="n">
-        <v>17.36214456428474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X6" t="n">
-        <v>17.36214456428474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.36214456428474</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>133.4046502373128</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>39.10244809925949</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>43.92213691921201</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>83.11017511143419</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>126.8010257668705</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.60801191149903</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>16.60801191149903</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>16.60801191149903</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E8" t="n">
-        <v>16.60801191149903</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F8" t="n">
-        <v>16.60801191149903</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G8" t="n">
-        <v>16.60801191149903</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H8" t="n">
-        <v>16.60801191149903</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>119.6230178224214</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>299.69886940708</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>505.2230168118805</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>710.747164216681</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>740.7405402829006</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>820.3089802067245</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>668.9260327914218</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>459.228912696737</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>436.0022521008685</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>436.0022521008685</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>436.0022521008685</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>436.0022521008685</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>436.0022521008685</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>226.3051320061838</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>143.4671088075516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>16.60801191149903</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>16.60801191149903</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>16.60801191149903</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>16.60801191149903</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>16.60801191149903</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>16.60801191149903</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>16.60801191149903</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>141.9655719693364</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>347.4897193741369</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>553.0138667789374</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>553.0138667789374</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>578.3625594482714</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>761.0060370616222</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>729.2310661278373</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>729.2310661278373</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>729.2310661278373</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>729.2310661278373</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>519.5339460331525</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>519.5339460331525</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>311.6824458276196</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>311.6824458276196</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>133.4046502373128</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>39.10244809925949</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>43.92213691921201</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>83.11017511143419</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>126.8010257668705</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>226.3051320061838</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C11" t="n">
-        <v>226.3051320061838</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D11" t="n">
-        <v>16.60801191149903</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E11" t="n">
-        <v>16.60801191149903</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F11" t="n">
-        <v>16.60801191149903</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G11" t="n">
-        <v>16.60801191149903</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H11" t="n">
-        <v>16.60801191149903</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I11" t="n">
-        <v>16.60801191149903</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>119.6230178224214</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>299.69886940708</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>475.681498027503</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>681.2056454323035</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>830.4005955749516</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>645.6993721955532</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>645.6993721955532</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>645.6993721955532</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>436.0022521008685</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>353.2554303428154</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C12" t="n">
-        <v>178.8024010616884</v>
+        <v>688.4345967823949</v>
       </c>
       <c r="D12" t="n">
-        <v>107.6617737071283</v>
+        <v>539.5001871211437</v>
       </c>
       <c r="E12" t="n">
-        <v>107.6617737071283</v>
+        <v>380.2627321156882</v>
       </c>
       <c r="F12" t="n">
-        <v>107.6617737071283</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G12" t="n">
-        <v>107.6617737071283</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H12" t="n">
-        <v>107.6617737071283</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
-        <v>17.36214456428474</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>16.60801191149903</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>222.1321593162995</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M12" t="n">
-        <v>419.3523007653506</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N12" t="n">
-        <v>624.8764481701511</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O12" t="n">
-        <v>830.4005955749516</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P12" t="n">
-        <v>830.4005955749516</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>729.2310661278373</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>729.2310661278373</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>729.2310661278373</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>729.2310661278373</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V12" t="n">
-        <v>729.2310661278373</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W12" t="n">
-        <v>729.2310661278373</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X12" t="n">
-        <v>729.2310661278373</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y12" t="n">
-        <v>521.4707673628834</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148.3913723663086</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>148.3913723663086</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>148.3913723663086</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>148.3913723663086</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>148.3913723663086</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>148.3913723663086</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>148.3913723663086</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>133.4046502373128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>39.10244809925949</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>43.92213691921201</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>83.11017511143419</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>126.8010257668705</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>148.3913723663086</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>148.3913723663086</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>148.3913723663086</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>148.3913723663086</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>148.3913723663086</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>148.3913723663086</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>148.3913723663086</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>148.3913723663086</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>148.3913723663086</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>148.3913723663086</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>448.0722413479519</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C14" t="n">
-        <v>448.0722413479519</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D14" t="n">
-        <v>448.0722413479519</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="E14" t="n">
-        <v>448.0722413479519</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F14" t="n">
-        <v>448.0722413479519</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G14" t="n">
-        <v>448.0722413479519</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H14" t="n">
-        <v>238.3751212532671</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I14" t="n">
-        <v>28.67800115858238</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>16.60801191149903</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>196.6838634961576</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>386.0214427354521</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>591.5455901402526</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>740.7405402829006</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>820.3089802067245</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>820.3089802067245</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>610.6118601120397</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T14" t="n">
-        <v>448.0722413479519</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U14" t="n">
-        <v>448.0722413479519</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V14" t="n">
-        <v>448.0722413479519</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W14" t="n">
-        <v>448.0722413479519</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X14" t="n">
-        <v>448.0722413479519</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y14" t="n">
-        <v>448.0722413479519</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>830.4005955749516</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C15" t="n">
-        <v>814.4681573567552</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D15" t="n">
-        <v>665.533747695504</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E15" t="n">
-        <v>506.2962926900485</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F15" t="n">
-        <v>359.7617347169335</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G15" t="n">
-        <v>221.0309092995489</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
-        <v>107.6617737071283</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
-        <v>17.36214456428474</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>141.9655719693364</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>167.3142646386704</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>372.838412043471</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>372.838412043471</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O15" t="n">
-        <v>578.3625594482714</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>761.0060370616222</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>830.4005955749516</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>830.4005955749516</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>830.4005955749516</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>830.4005955749516</v>
+        <v>391.9193775183306</v>
       </c>
       <c r="V15" t="n">
-        <v>830.4005955749516</v>
+        <v>391.9193775183306</v>
       </c>
       <c r="W15" t="n">
-        <v>830.4005955749516</v>
+        <v>391.9193775183306</v>
       </c>
       <c r="X15" t="n">
-        <v>830.4005955749516</v>
+        <v>391.9193775183306</v>
       </c>
       <c r="Y15" t="n">
-        <v>830.4005955749516</v>
+        <v>391.9193775183306</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>43.92213691921201</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>83.11017511143419</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>126.8010257668705</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>148.3913723663086</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.35900544540522</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16.60801191149903</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>16.60801191149903</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>16.60801191149903</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>16.60801191149903</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>16.60801191149903</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G17" t="n">
-        <v>16.60801191149903</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H17" t="n">
-        <v>16.60801191149903</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>16.60801191149903</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>119.6230178224214</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>299.69886940708</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>386.0214427354521</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>591.5455901402526</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>740.7405402829006</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>820.3089802067245</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>668.9260327914218</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>459.228912696737</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>249.5317926020523</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>39.83467250736754</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>16.60801191149903</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>16.60801191149903</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>16.60801191149903</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>16.60801191149903</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>17.36214456428474</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C18" t="n">
-        <v>17.36214456428474</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D18" t="n">
-        <v>17.36214456428474</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="E18" t="n">
-        <v>17.36214456428474</v>
+        <v>254.3910354390318</v>
       </c>
       <c r="F18" t="n">
-        <v>17.36214456428474</v>
+        <v>107.8564774659168</v>
       </c>
       <c r="G18" t="n">
-        <v>17.36214456428474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>17.36214456428474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>17.36214456428474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>141.9655719693364</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>236.7088231519997</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>442.2329705568002</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>442.2329705568002</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O18" t="n">
-        <v>647.7571179616007</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P18" t="n">
-        <v>830.4005955749516</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>729.2310661278373</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>555.8137215785061</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>353.6271269372722</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>143.9300068425874</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>17.36214456428474</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>17.36214456428474</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>17.36214456428474</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>17.36214456428474</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>43.92213691921201</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>83.11017511143419</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>126.8010257668705</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>151.1403024017698</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>325.7766548071333</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T20" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>430.6185591254734</v>
+        <v>345.004439675971</v>
       </c>
       <c r="C21" t="n">
-        <v>430.6185591254734</v>
+        <v>170.551410394844</v>
       </c>
       <c r="D21" t="n">
-        <v>430.6185591254734</v>
+        <v>21.61700073359273</v>
       </c>
       <c r="E21" t="n">
-        <v>271.3811041200179</v>
+        <v>21.61700073359273</v>
       </c>
       <c r="F21" t="n">
-        <v>271.3811041200179</v>
+        <v>21.61700073359273</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>21.61700073359273</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>21.61700073359273</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5838,13 +5840,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W21" t="n">
-        <v>500.6814290152826</v>
+        <v>345.004439675971</v>
       </c>
       <c r="X21" t="n">
-        <v>500.6814290152826</v>
+        <v>345.004439675971</v>
       </c>
       <c r="Y21" t="n">
-        <v>500.6814290152826</v>
+        <v>345.004439675971</v>
       </c>
     </row>
     <row r="22">
@@ -5938,10 +5940,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
         <v>262.7299197543128</v>
@@ -6017,22 +6019,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>313.4946457291688</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="C24" t="n">
-        <v>313.4946457291688</v>
+        <v>251.0958939094183</v>
       </c>
       <c r="D24" t="n">
-        <v>164.5602360679176</v>
+        <v>251.0958939094183</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>251.0958939094183</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>251.0958939094183</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>112.3650684920338</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>65.60123993063803</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6093,25 +6095,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U24" t="n">
-        <v>689.4702815141908</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V24" t="n">
-        <v>689.4702815141908</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W24" t="n">
-        <v>689.4702815141908</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="X24" t="n">
-        <v>689.4702815141908</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="Y24" t="n">
-        <v>481.7099827492369</v>
+        <v>425.5489231905453</v>
       </c>
     </row>
     <row r="25">
@@ -6163,22 +6165,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6257,19 +6259,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>259.0600686093459</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="C27" t="n">
-        <v>259.0600686093459</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="D27" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U27" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V27" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W27" t="n">
-        <v>259.0600686093459</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="X27" t="n">
-        <v>259.0600686093459</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="Y27" t="n">
-        <v>259.0600686093459</v>
+        <v>116.7808214123601</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>749.627473042513</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T29" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U29" t="n">
-        <v>752.9257720901863</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V29" t="n">
-        <v>752.9257720901863</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="W29" t="n">
-        <v>752.9257720901863</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>255.9366034337592</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>90.73453560909468</v>
+        <v>492.48569440222</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>492.48569440222</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>492.48569440222</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>333.2482393967645</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>186.7136814236494</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>186.7136814236494</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>73.34454583122876</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6549,43 +6551,43 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U30" t="n">
-        <v>533.6469426057913</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V30" t="n">
-        <v>298.4948343740486</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W30" t="n">
-        <v>298.4948343740486</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X30" t="n">
-        <v>298.4948343740486</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y30" t="n">
-        <v>90.73453560909468</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="31">
@@ -6640,16 +6642,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>114.6452713866835</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>248.3115976704407</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C33" t="n">
-        <v>248.3115976704407</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D33" t="n">
-        <v>248.3115976704407</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E33" t="n">
-        <v>248.3115976704407</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F33" t="n">
-        <v>248.3115976704407</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G33" t="n">
-        <v>109.5807722530562</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6780,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6813,16 +6815,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>907.3721732850274</v>
+        <v>959.9261913372882</v>
       </c>
       <c r="W33" t="n">
-        <v>663.9233966409274</v>
+        <v>716.4774146931882</v>
       </c>
       <c r="X33" t="n">
-        <v>456.0718964353946</v>
+        <v>508.6259144876553</v>
       </c>
       <c r="Y33" t="n">
-        <v>248.3115976704407</v>
+        <v>300.8656157227014</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V35" t="n">
-        <v>477.1596022224361</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="W35" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X35" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>310.6614854603483</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>310.6614854603483</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>310.6614854603483</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>151.4240304548928</v>
       </c>
       <c r="F36" t="n">
         <v>19.28114311021272</v>
@@ -7020,16 +7022,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7044,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>933.9571464551993</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>705.7335281915883</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V36" t="n">
-        <v>470.5814199598456</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W36" t="n">
-        <v>227.1326433157456</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>310.6614854603483</v>
       </c>
     </row>
     <row r="37">
@@ -7069,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
         <v>19.28114311021272</v>
@@ -7126,19 +7128,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C38" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D38" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y38" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,43 +7262,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>613.2059550252818</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O39" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>913.4938269565423</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>678.3417187247995</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W39" t="n">
-        <v>434.8929420806995</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>279.5233881080029</v>
       </c>
     </row>
     <row r="40">
@@ -7360,16 +7362,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
         <v>829.5248650203655</v>
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S41" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T41" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U41" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V41" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W41" t="n">
-        <v>499.3853800778592</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X41" t="n">
-        <v>255.9366034337592</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y41" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>243.4632136343998</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="C42" t="n">
-        <v>69.01018435327282</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D42" t="n">
-        <v>69.01018435327282</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>69.01018435327282</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>69.01018435327282</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>69.01018435327282</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>69.01018435327282</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
         <v>20.03527576299844</v>
@@ -7500,10 +7502,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7512,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>619.4388494194218</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>619.4388494194218</v>
+        <v>719.3983504903987</v>
       </c>
       <c r="Y42" t="n">
-        <v>411.6785506544679</v>
+        <v>511.6380517254448</v>
       </c>
     </row>
     <row r="43">
@@ -7591,13 +7593,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>610.6118601120397</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>610.6118601120397</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>610.6118601120397</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>400.914740017355</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>191.2176199226702</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>191.2176199226702</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>191.2176199226702</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>28.67800115858238</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>119.6230178224214</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>299.69886940708</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>475.681498027503</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>681.2056454323035</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>830.4005955749516</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>820.3089802067245</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>820.3089802067245</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>820.3089802067245</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>820.3089802067245</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>820.3089802067245</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>820.3089802067245</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>820.3089802067245</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>820.3089802067245</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y44" t="n">
-        <v>820.3089802067245</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>31.18467574719915</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>236.7088231519997</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
-        <v>442.2329705568002</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>647.7571179616007</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>656.9832510256205</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>656.9832510256205</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>447.2861309309357</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>447.2861309309357</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>237.589010836251</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>29.73751063071813</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>43.92213691921201</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>83.11017511143419</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>126.8010257668705</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7984,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>401.3111456964039</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>437.9463821210106</v>
+        <v>281.6966398529821</v>
       </c>
       <c r="N2" t="n">
-        <v>437.0132124903288</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>290.7829178881282</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>338.9418609770712</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>350.1963933381824</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>191.3321807117309</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,13 +8224,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>437.9463821210106</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.0132124903288</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>260.3945508825146</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>234.254633499736</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>349.7341828157562</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>350.1963933381824</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,16 +8458,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M8" t="n">
-        <v>437.9463821210106</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.0132124903288</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>260.3945508825146</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8535,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>346.154528673612</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>349.7341828157562</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>168.2009845144788</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8696,16 +8698,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>408.106464156993</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.0132124903288</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>346.154528673612</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M12" t="n">
-        <v>341.3462980119689</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>338.9418609770712</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>350.1963933381824</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,16 +8929,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>421.5963132669641</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.0132124903288</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9009,22 +9011,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>164.1591198499085</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>349.7341828157562</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>350.1963933381824</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9170,10 +9172,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>317.5407517407799</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.0132124903288</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9246,22 +9248,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>234.254633499736</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>349.7341828157562</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>350.1963933381824</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,16 +9488,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>185.3423563661624</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
@@ -9729,7 +9731,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9966,13 +9968,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>198.1125443848066</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,7 +10199,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>303.312501347746</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N33" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,19 +10670,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10908,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11148,13 +11150,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>408.106464156993</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.0132124903288</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,16 +11381,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>153.2782826442177</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>349.7341828157562</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N45" t="n">
-        <v>338.9418609770712</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>350.1963933381824</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22589,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>1.419920692507446</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>175.9620140121676</v>
       </c>
       <c r="U2" t="n">
-        <v>78.48214097677703</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>141.6408198236751</v>
+        <v>295.7284397074633</v>
       </c>
       <c r="X2" t="n">
-        <v>162.1309517847311</v>
+        <v>316.2185716685193</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>332.7254096461039</v>
       </c>
     </row>
     <row r="3">
@@ -22635,7 +22637,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22671,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>26.45585761052268</v>
+        <v>124.5493355518741</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>18.34123318723692</v>
+        <v>172.4288530710251</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>179.2880581394755</v>
       </c>
       <c r="W3" t="n">
-        <v>44.09483426718171</v>
+        <v>198.1824541509698</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22720,13 +22722,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>158.3347547678539</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>101.9379459173085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>39.84665110672302</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>199.8796305178762</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C5" t="n">
-        <v>157.6727428772697</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22847,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>162.1309517847311</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>178.6377897623157</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22884,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,19 +22913,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>82.29796523821821</v>
+        <v>64.75056867910476</v>
       </c>
       <c r="U6" t="n">
-        <v>18.34123318723692</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>25.20043825568737</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.1336927697427</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23027,19 +23029,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23063,16 +23065,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>1.419920692507446</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>200.1014555742215</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23087,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>178.6377897623157</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>47.11799306122371</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23157,13 +23159,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>25.20043825568737</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23255,31 +23257,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>175.1336927697427</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>147.0828927269451</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23315,7 +23317,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>144.8980473245306</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23324,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.6377897623157</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>77.01584448362426</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23403,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23501,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>300.9249924173288</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>131.8746532220293</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>2.875740676668016</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23537,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.419920692507446</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>62.18162698768441</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23571,22 +23573,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>156.9353851523014</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>131.5307158198949</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23668,7 +23670,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I16" t="n">
         <v>155.4504749272583</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>1.419920692507446</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>15.49570067039346</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>43.7455040140986</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>304.7578644802251</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,22 +23810,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>49.65393615106365</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23832,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>18.34123318723692</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>107.4984034939056</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23877,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23941,10 +23943,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23969,13 +23971,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>272.3182247614621</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23987,7 +23989,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24026,7 +24028,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>97.1709424589562</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>87.08413380426887</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24096,19 +24098,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24178,13 +24180,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24206,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>113.6687527430239</v>
@@ -24257,10 +24259,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24272,7 +24274,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,31 +24284,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>13.81877842727314</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>110.2255822861666</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,16 +24335,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24351,7 +24353,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24403,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -24418,10 +24420,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>121.6721164735665</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24443,16 +24445,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24464,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24497,19 +24499,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>39.0602672643945</v>
+        <v>51.00955661900684</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24525,7 +24527,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>50.92038404551289</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24534,16 +24536,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>102.3410493332382</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24582,7 +24584,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24640,13 +24642,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>132.9899077786023</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24680,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>130.9839860506966</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24692,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24734,16 +24736,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>366.4657846212724</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,31 +24758,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>101.9696404144226</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>36.62045548386706</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24813,10 +24815,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24825,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24880,7 +24882,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24889,10 +24891,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2941050228172</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>288.3233546697745</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24962,10 +24964,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24977,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>128.71681180081</v>
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25008,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25053,7 +25055,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>176.6824547460726</v>
+        <v>228.7109326178107</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25096,7 +25098,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>46.33425578299912</v>
       </c>
       <c r="K34" t="n">
         <v>22.26949182588285</v>
@@ -25117,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25175,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,13 +25198,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25214,10 +25216,10 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>126.9013523517146</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25239,10 +25241,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>14.24775392215065</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25284,22 +25286,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>170.3657197299391</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25315,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25366,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,31 +25390,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25442,13 +25444,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>109.4977228677776</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25482,16 +25484,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>82.08236302956777</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25612,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25670,10 +25672,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>151.9490329357426</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25710,7 +25712,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25725,7 +25727,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>40.91147334704344</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25770,7 +25772,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>204.5750571111013</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>175.1336927697427</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,10 +25873,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>174.3302211785239</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
-        <v>199.2758968479735</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25883,10 +25885,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>49.56166699395897</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25928,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25992,25 +25994,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>18.34123318723692</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>44.09483426718171</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>192.6844920452774</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="46">
@@ -26077,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>466839.2206462253</v>
+        <v>359232.1374638865</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>466839.2206462253</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>466839.2206462251</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>466839.2206462251</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>466839.2206462253</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>466839.2206462251</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>466839.2206462253</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87037.82079844869</v>
+        <v>66975.48325597878</v>
       </c>
       <c r="C2" t="n">
-        <v>87037.82079844871</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="D2" t="n">
-        <v>87037.82079844868</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="E2" t="n">
-        <v>87037.82079844871</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="F2" t="n">
-        <v>87037.82079844868</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="G2" t="n">
-        <v>87037.82079844871</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="H2" t="n">
-        <v>91388.36989223285</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="I2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="J2" t="n">
         <v>91388.3698922328</v>
@@ -26344,16 +26346,16 @@
         <v>91388.36989223282</v>
       </c>
       <c r="M2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="N2" t="n">
+        <v>91388.36989223285</v>
+      </c>
+      <c r="O2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="N2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="O2" t="n">
-        <v>91388.3698922328</v>
-      </c>
       <c r="P2" t="n">
-        <v>87037.82079844871</v>
+        <v>91388.36989223279</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69571.58469771611</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26381,16 +26383,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>9015.435694921785</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>54317.33335715316</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.3204093616783</v>
+        <v>43.66758612952252</v>
       </c>
       <c r="C4" t="n">
-        <v>155.3204093616783</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>155.3204093616783</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>155.3204093616783</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>155.3204093616783</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
-        <v>155.3204093616783</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
         <v>179.5324977039669</v>
@@ -26457,7 +26459,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>155.3204093616783</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46249.68905273926</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>46249.68905273926</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>46249.68905273926</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>12622.08905273926</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>12622.08905273926</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
-        <v>12622.08905273926</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26509,7 +26511,7 @@
         <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12622.08905273926</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28938.77336136836</v>
+        <v>12117.37464664292</v>
       </c>
       <c r="C6" t="n">
-        <v>40632.81133634777</v>
+        <v>-17648.75355590096</v>
       </c>
       <c r="D6" t="n">
-        <v>40632.81133634774</v>
+        <v>42927.56863076716</v>
       </c>
       <c r="E6" t="n">
-        <v>74260.41133634777</v>
+        <v>76555.16863076718</v>
       </c>
       <c r="F6" t="n">
-        <v>74260.41133634774</v>
+        <v>76555.16863076716</v>
       </c>
       <c r="G6" t="n">
-        <v>74260.41133634777</v>
+        <v>76555.16863076716</v>
       </c>
       <c r="H6" t="n">
-        <v>67539.73293584542</v>
+        <v>76555.16863076718</v>
       </c>
       <c r="I6" t="n">
-        <v>76555.16863076716</v>
+        <v>76555.16863076715</v>
       </c>
       <c r="J6" t="n">
-        <v>22237.83527361401</v>
+        <v>62553.93649048787</v>
       </c>
       <c r="K6" t="n">
-        <v>76555.16863076716</v>
+        <v>28298.21569713456</v>
       </c>
       <c r="L6" t="n">
         <v>76555.16863076718</v>
       </c>
       <c r="M6" t="n">
+        <v>76555.16863076719</v>
+      </c>
+      <c r="N6" t="n">
+        <v>76555.16863076721</v>
+      </c>
+      <c r="O6" t="n">
         <v>76555.16863076718</v>
       </c>
-      <c r="N6" t="n">
-        <v>76555.16863076716</v>
-      </c>
-      <c r="O6" t="n">
-        <v>76555.16863076716</v>
-      </c>
       <c r="P6" t="n">
-        <v>74260.41133634777</v>
+        <v>76555.16863076715</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26829,7 +26831,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27027,16 +27029,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>33.41413998392116</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>33.41413998392116</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34702,19 +34704,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>165.5447307264167</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>207.6001488937379</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="N2" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>152.228538108254</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,13 +34944,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>207.6001488937379</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.6001488937379</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>30.29633946082792</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>95.70025371986186</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>207.6001488937379</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,13 +35181,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>207.6001488937379</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.6001488937379</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>30.29633946082792</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35255,16 +35257,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>207.6001488937379</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>25.60474007003436</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35416,16 +35418,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>177.7602309297203</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.6001488937379</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>207.6001488937379</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M12" t="n">
-        <v>199.2122640899506</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>191.2500800396914</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.6001488937379</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35729,22 +35731,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>25.60474007003436</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>207.6001488937379</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,10 +35892,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>87.19451851350715</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.6001488937379</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35966,22 +35968,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>95.70025371986186</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36133,7 +36135,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36206,16 +36208,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,10 +36439,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>46.78797658628819</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
@@ -36449,7 +36451,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36686,13 +36688,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>55.51629994036219</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,7 +36919,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>161.1784674257276</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,19 +37390,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37628,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,7 +37791,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37868,13 +37870,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38023,16 +38025,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>177.7602309297203</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>207.6001488937379</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>14.72390286434356</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>207.6001488937379</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N45" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>438677.708165228</v>
+        <v>334231.5891583352</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18548951.26311751</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5537000.186932486</v>
+        <v>5523969.245129508</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>47.13383555196372</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>47.13383555196372</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="4">
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3.89241773958567</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>31.15099944008764</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="9">
@@ -1214,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>113.6716286785589</v>
       </c>
     </row>
     <row r="10">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>31.15099944008764</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,28 +1451,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>26.69961786573946</v>
       </c>
       <c r="F12" t="n">
-        <v>17.64958753804059</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1508,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,22 +1615,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>81.00537765493296</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1703,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>8.311618392921693</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>94.41066626107992</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="16">
@@ -1782,43 +1782,43 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,16 +1888,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1922,22 +1922,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>87.68958101214699</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>64.38401073897947</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2180,10 +2180,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.312499047146208</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>61.77856551940151</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2323,17 +2323,17 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2411,16 +2411,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2.0098619503299</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="25">
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,73 +2557,73 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>200.3360962888297</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>96.52468151912586</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2693,10 +2693,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2836,19 +2836,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
@@ -2870,31 +2870,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>119.3888130423743</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>52.77617736754802</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3073,31 +3073,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3161,13 +3161,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>4.089654531614567</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3176,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>62.43486741948623</v>
       </c>
     </row>
     <row r="34">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3280,16 +3280,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,25 +3310,25 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>222.3396163656984</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3353,10 +3353,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>130.8214584712332</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3398,19 +3398,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,22 +3508,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3596,16 +3596,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>55.26115413364287</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="40">
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3784,19 +3784,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>3.265316057196634</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X42" t="n">
-        <v>1.197928092376154</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,19 +4021,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>80.86228322859426</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>4.28100232079598</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>57.25840604064623</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>108.0953086000985</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>161.0727123199487</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
-        <v>214.050116039799</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S2" t="n">
-        <v>214.050116039799</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T2" t="n">
-        <v>166.4401811388256</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U2" t="n">
-        <v>166.4401811388256</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="V2" t="n">
-        <v>166.4401811388256</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="W2" t="n">
-        <v>112.3871215328157</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="X2" t="n">
-        <v>58.33406192680583</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.28100232079598</v>
+        <v>47.90708355515102</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064623</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M3" t="n">
-        <v>57.25840604064623</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N3" t="n">
-        <v>57.25840604064623</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O3" t="n">
-        <v>110.2358097604965</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P3" t="n">
-        <v>163.2132134803467</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
-        <v>214.050116039799</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>166.4401811388256</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>166.4401811388256</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>112.3871215328157</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V3" t="n">
-        <v>58.33406192680583</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W3" t="n">
-        <v>4.28100232079598</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X3" t="n">
-        <v>4.28100232079598</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>134.8815577205762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>80.82849811456629</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L4" t="n">
-        <v>31.59512732850896</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M4" t="n">
-        <v>70.78316552073113</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N4" t="n">
-        <v>114.4740161761674</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O4" t="n">
-        <v>138.8132928110667</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>138.8132928110667</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.8132928110667</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>138.8132928110667</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>138.8132928110667</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>138.8132928110667</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>138.8132928110667</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>138.8132928110667</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.8132928110667</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
-        <v>262.7299197543128</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>726.1056462496665</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>497.8820279860555</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>262.7299197543128</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E8" t="n">
-        <v>962.2293816994886</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F8" t="n">
-        <v>718.7806050553886</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>190.8944568361894</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="E11" t="n">
-        <v>964.0571555106362</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F11" t="n">
-        <v>720.6083788665362</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
-        <v>477.1596022224361</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>233.7108255783361</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>122.2961490211351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3720006057937</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M11" t="n">
-        <v>519.3476278686978</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759372</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185853</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>862.8876260635219</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="C12" t="n">
-        <v>688.4345967823949</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="D12" t="n">
-        <v>539.5001871211437</v>
+        <v>156.7798741229775</v>
       </c>
       <c r="E12" t="n">
-        <v>380.2627321156882</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>178.8501590306595</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>417.4543050195419</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>656.0584510084244</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O12" t="n">
-        <v>894.6625969973069</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U12" t="n">
-        <v>862.8876260635219</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V12" t="n">
-        <v>862.8876260635219</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W12" t="n">
-        <v>862.8876260635219</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="X12" t="n">
-        <v>862.8876260635219</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="Y12" t="n">
-        <v>862.8876260635219</v>
+        <v>305.7142837842288</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L13" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M13" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N13" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>812.6742080953335</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C14" t="n">
-        <v>812.6742080953335</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D14" t="n">
-        <v>812.6742080953335</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E14" t="n">
-        <v>730.8505943024719</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F14" t="n">
-        <v>487.4018176583718</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
-        <v>487.4018176583718</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H14" t="n">
-        <v>243.9530410142718</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>122.2961490211351</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>302.3720006057937</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>519.3476278686978</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2021500759372</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>874.3971002185853</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>812.6742080953335</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>812.6742080953335</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T14" t="n">
-        <v>812.6742080953335</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U14" t="n">
-        <v>812.6742080953335</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V14" t="n">
-        <v>812.6742080953335</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W14" t="n">
-        <v>812.6742080953335</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X14" t="n">
-        <v>812.6742080953335</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y14" t="n">
-        <v>812.6742080953335</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>223.7040404982626</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C15" t="n">
-        <v>223.7040404982626</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="D15" t="n">
-        <v>223.7040404982626</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="E15" t="n">
-        <v>223.7040404982626</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="F15" t="n">
-        <v>223.7040404982626</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N15" t="n">
-        <v>851.8101010141643</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>391.9193775183306</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V15" t="n">
-        <v>391.9193775183306</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W15" t="n">
-        <v>391.9193775183306</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X15" t="n">
-        <v>391.9193775183306</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y15" t="n">
-        <v>391.9193775183306</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L16" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M16" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N16" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>588.0815197256143</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>413.6284904444873</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>413.6284904444873</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>254.3910354390318</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8564774659168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5609,7 +5609,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="O18" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5627,19 +5627,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y18" t="n">
-        <v>756.2968567456824</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5703,7 +5703,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5737,10 +5737,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>345.004439675971</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>170.551410394844</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>21.61700073359273</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>21.61700073359273</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>21.61700073359273</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>21.61700073359273</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>21.61700073359273</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>588.4532163200711</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>588.4532163200711</v>
+        <v>471.2443511720524</v>
       </c>
       <c r="W21" t="n">
-        <v>345.004439675971</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="X21" t="n">
-        <v>345.004439675971</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y21" t="n">
-        <v>345.004439675971</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5940,10 +5940,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5971,13 +5971,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,19 +6010,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V23" t="n">
         <v>506.1786963984129</v>
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>425.5489231905453</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>251.0958939094183</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>251.0958939094183</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>251.0958939094183</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>251.0958939094183</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>112.3650684920338</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6074,46 +6074,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>660.701031422288</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>425.5489231905453</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>425.5489231905453</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>425.5489231905453</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>425.5489231905453</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6165,25 +6165,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>116.7808214123601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>116.7808214123601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
         <v>19.28114311021272</v>
@@ -6317,10 +6317,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6341,16 +6341,16 @@
         <v>360.2295980564601</v>
       </c>
       <c r="V27" t="n">
-        <v>360.2295980564601</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W27" t="n">
-        <v>116.7808214123601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X27" t="n">
-        <v>116.7808214123601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>116.7808214123601</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>742.8341567219593</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T29" t="n">
-        <v>742.8341567219593</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U29" t="n">
-        <v>499.3853800778592</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>492.48569440222</v>
+        <v>139.8759037590757</v>
       </c>
       <c r="C30" t="n">
-        <v>492.48569440222</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>492.48569440222</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>333.2482393967645</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>186.7136814236494</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>186.7136814236494</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>73.34454583122876</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6548,46 +6548,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V30" t="n">
-        <v>660.701031422288</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W30" t="n">
-        <v>660.701031422288</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X30" t="n">
-        <v>660.701031422288</v>
+        <v>347.6362025240296</v>
       </c>
       <c r="Y30" t="n">
-        <v>660.701031422288</v>
+        <v>139.8759037590757</v>
       </c>
     </row>
     <row r="31">
@@ -6651,13 +6651,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>601.5428246748836</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>601.5428246748836</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V32" t="n">
-        <v>601.5428246748836</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W32" t="n">
-        <v>601.5428246748836</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X32" t="n">
-        <v>358.0940480307835</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y32" t="n">
-        <v>114.6452713866835</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6782,13 +6782,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N33" t="n">
         <v>473.4149733950735</v>
@@ -6809,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>959.9261913372882</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W33" t="n">
-        <v>716.4774146931882</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X33" t="n">
-        <v>508.6259144876553</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="Y33" t="n">
-        <v>300.8656157227014</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
         <v>19.28114311021272</v>
@@ -6879,31 +6879,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.35113235729608</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C35" t="n">
-        <v>31.35113235729608</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D35" t="n">
-        <v>31.35113235729608</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E35" t="n">
-        <v>31.35113235729608</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>742.8341567219593</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>742.8341567219593</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U35" t="n">
-        <v>499.3853800778592</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V35" t="n">
-        <v>255.9366034337592</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W35" t="n">
-        <v>31.35113235729608</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X35" t="n">
-        <v>31.35113235729608</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.35113235729608</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>310.6614854603483</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>310.6614854603483</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>310.6614854603483</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>151.4240304548928</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
         <v>473.4149733950735</v>
@@ -7046,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>761.8705608694022</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V36" t="n">
-        <v>761.8705608694022</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W36" t="n">
-        <v>518.4217842253022</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X36" t="n">
-        <v>518.4217842253022</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y36" t="n">
-        <v>310.6614854603483</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7128,10 +7128,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>953.9655401424092</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C38" t="n">
-        <v>953.9655401424092</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D38" t="n">
-        <v>953.9655401424092</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E38" t="n">
-        <v>953.9655401424092</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F38" t="n">
-        <v>710.516763498309</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G38" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7204,22 +7204,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y38" t="n">
-        <v>953.9655401424092</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>279.5233881080029</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>279.5233881080029</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>279.5233881080029</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>279.5233881080029</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>279.5233881080029</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7265,10 +7265,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>487.2836868729568</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>487.2836868729568</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>487.2836868729568</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>279.5233881080029</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J41" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>122.2961490211351</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>302.3720006057937</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>519.3476278686978</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759372</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185853</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>960.7588564629629</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S41" t="n">
-        <v>749.627473042513</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T41" t="n">
-        <v>749.627473042513</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U41" t="n">
-        <v>749.627473042513</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V41" t="n">
-        <v>749.627473042513</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>343.4227147053767</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>168.9696854242497</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
-        <v>726.4525409563269</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X42" t="n">
-        <v>719.3983504903987</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y42" t="n">
-        <v>511.6380517254448</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J44" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>122.2961490211351</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>302.3720006057937</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>519.3476278686978</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759372</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185853</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>396.792197863116</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="W44" t="n">
-        <v>964.0571555106362</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="X44" t="n">
-        <v>749.627473042513</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>189.1984156022267</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>304.2053859195205</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L46" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M46" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N46" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>281.6966398529821</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>192.0669087898239</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>328.5558052311782</v>
       </c>
       <c r="O3" t="n">
-        <v>196.1087734543942</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>191.3321807117309</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,16 +8218,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>414.5003637832617</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M6" t="n">
-        <v>368.5691090902119</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,16 +8455,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8537,19 +8537,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>233.2169876979182</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8692,16 +8692,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8774,22 +8774,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>173.111405903722</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>201.9320071929585</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8935,10 +8935,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>255.9771075721939</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9257,10 +9257,10 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P18" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,22 +9722,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9965,13 +9965,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O27" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10196,13 +10196,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>233.2169876979182</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10913,13 +10913,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2485028631349</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11068,10 +11068,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11141,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>201.9320071929585</v>
       </c>
       <c r="O42" t="n">
-        <v>382.6009056104135</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11299,16 +11299,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11378,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>197.6503338623806</v>
+        <v>212.7243290316435</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>351.5828422233929</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22594,28 +22594,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>175.9620140121676</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
-        <v>295.7284397074633</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>316.2185716685193</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>332.7254096461039</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22676,25 +22676,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>124.5493355518741</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>172.4288530710251</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>179.2880581394755</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>198.1824541509698</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>24.66257839606692</v>
       </c>
     </row>
     <row r="4">
@@ -22722,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>158.3347547678539</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>101.9379459173085</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>39.84665110672302</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22840,19 +22840,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>348.5708004529261</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>64.75056867910476</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>51.78046976818791</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22992,7 +22992,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,19 +23029,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23068,10 +23068,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>177.8690701461577</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23102,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,10 +23156,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23168,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>92.01106709874544</v>
       </c>
     </row>
     <row r="10">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23266,22 +23266,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>338.5801012383814</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23339,28 +23339,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>130.9454625896615</v>
       </c>
       <c r="F12" t="n">
-        <v>127.4196248553433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23396,10 +23396,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23475,10 +23475,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W13" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,22 +23503,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>300.9249924173288</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659908</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23591,13 +23591,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>103.9238258435748</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>131.5307158198949</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23642,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="16">
@@ -23670,7 +23670,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
         <v>155.4504749272583</v>
@@ -23706,7 +23706,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>262.9346646783187</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,16 +23776,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23810,22 +23810,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>49.65393615106365</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23867,16 +23867,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>187.3109724219401</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23977,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>31.13252716541155</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24050,10 +24050,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24068,10 +24068,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>87.08413380426887</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24098,16 +24098,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>171.0220216300237</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24116,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24180,13 +24180,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24211,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24259,13 +24259,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24299,16 +24299,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>110.2255822861666</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="25">
@@ -24405,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -24423,10 +24423,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>121.6721164735665</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,19 +24445,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24499,10 +24499,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>51.00955661900684</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24527,7 +24527,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>50.92038404551289</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24581,10 +24581,10 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180149</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>130.9839860506966</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24697,7 +24697,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24724,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
@@ -24758,31 +24758,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>53.3196859459414</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>36.62045548386706</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24891,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>288.3233546697745</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24940,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,31 +24961,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>140.9771323296006</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25013,7 +25013,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25049,13 +25049,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>228.7109326178107</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>143.2478283578181</v>
       </c>
     </row>
     <row r="34">
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25098,7 +25098,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>46.33425578299912</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
         <v>22.26949182588285</v>
@@ -25119,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25168,16 +25168,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>98.14696326317221</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,25 +25198,25 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>126.9013523517146</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25241,10 +25241,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>14.24775392215065</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25286,19 +25286,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25396,22 +25396,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>195.0896117727101</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25444,7 +25444,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25484,16 +25484,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>82.08236302956777</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="40">
@@ -25605,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>394.1424372895921</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25672,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>146.6038018839531</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25763,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X42" t="n">
-        <v>204.5750571111013</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,13 +25873,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>256.2226087030549</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26000,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>124.9107019748832</v>
       </c>
       <c r="Y45" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26073,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>359232.1374638865</v>
+        <v>465385.0434130487</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490173.9839674308</v>
+        <v>465385.0434130487</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490173.9839674309</v>
+        <v>465385.0434130486</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490173.9839674309</v>
+        <v>465385.0434130486</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490173.9839674308</v>
+        <v>465385.0434130486</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490173.9839674309</v>
+        <v>465385.0434130487</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490173.9839674308</v>
+        <v>465385.0434130486</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66975.48325597878</v>
+        <v>86766.70300921239</v>
       </c>
       <c r="C2" t="n">
-        <v>91388.36989223279</v>
+        <v>86766.70300921236</v>
       </c>
       <c r="D2" t="n">
-        <v>91388.3698922328</v>
+        <v>86766.70300921238</v>
       </c>
       <c r="E2" t="n">
+        <v>86766.70300921236</v>
+      </c>
+      <c r="F2" t="n">
+        <v>86766.70300921236</v>
+      </c>
+      <c r="G2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="H2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="I2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="F2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="G2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="I2" t="n">
-        <v>91388.36989223279</v>
-      </c>
-      <c r="J2" t="n">
-        <v>91388.3698922328</v>
-      </c>
       <c r="K2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="L2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="M2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="N2" t="n">
-        <v>91388.36989223285</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="O2" t="n">
-        <v>91388.36989223282</v>
+        <v>86766.70300921238</v>
       </c>
       <c r="P2" t="n">
-        <v>91388.36989223279</v>
+        <v>86766.70300921239</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940139</v>
+        <v>68873.75658168984</v>
       </c>
       <c r="C3" t="n">
-        <v>60576.32218666811</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>9729.042974167098</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14001.23214027929</v>
+        <v>53772.51089020943</v>
       </c>
       <c r="K3" t="n">
-        <v>48256.95293363261</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.66758612952252</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="C4" t="n">
-        <v>179.5324977039669</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="D4" t="n">
-        <v>179.5324977039669</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="E4" t="n">
-        <v>179.5324977039669</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="F4" t="n">
-        <v>179.5324977039669</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="G4" t="n">
         <v>179.5324977039669</v>
@@ -26456,10 +26456,10 @@
         <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>179.5324977039669</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="P4" t="n">
-        <v>179.5324977039669</v>
+        <v>153.8115589332268</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36881.16176380494</v>
+        <v>46123.08494184745</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>46123.08494184745</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>46123.08494184745</v>
       </c>
       <c r="E5" t="n">
-        <v>14653.66876376167</v>
+        <v>12495.48494184745</v>
       </c>
       <c r="F5" t="n">
-        <v>14653.66876376167</v>
+        <v>12495.48494184745</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26508,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14653.66876376167</v>
+        <v>12495.48494184745</v>
       </c>
       <c r="P5" t="n">
-        <v>14653.66876376167</v>
+        <v>12495.48494184745</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12117.37464664292</v>
+        <v>-41022.11222811863</v>
       </c>
       <c r="C6" t="n">
-        <v>-17648.75355590096</v>
+        <v>27851.64435357118</v>
       </c>
       <c r="D6" t="n">
-        <v>42927.56863076716</v>
+        <v>27851.6443535712</v>
       </c>
       <c r="E6" t="n">
-        <v>76555.16863076718</v>
+        <v>61479.24435357118</v>
       </c>
       <c r="F6" t="n">
-        <v>76555.16863076716</v>
+        <v>61479.24435357118</v>
       </c>
       <c r="G6" t="n">
-        <v>76555.16863076716</v>
+        <v>54608.11503655963</v>
       </c>
       <c r="H6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.15801072673</v>
       </c>
       <c r="I6" t="n">
-        <v>76555.16863076715</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="J6" t="n">
-        <v>62553.93649048787</v>
+        <v>10564.64712051729</v>
       </c>
       <c r="K6" t="n">
-        <v>28298.21569713456</v>
+        <v>64337.15801072673</v>
       </c>
       <c r="L6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="M6" t="n">
-        <v>76555.16863076719</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="N6" t="n">
-        <v>76555.16863076721</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="O6" t="n">
-        <v>76555.16863076718</v>
+        <v>61479.24435357119</v>
       </c>
       <c r="P6" t="n">
-        <v>76555.16863076715</v>
+        <v>61479.24435357121</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26828,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
   </sheetData>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5017598677093</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>35.49644443937865</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5017598677093</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5017598677093</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>35.49644443937865</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>53.51252900994975</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>51.35040662570935</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>53.51252900994975</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="O3" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>51.35040662570938</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="M6" t="n">
-        <v>226.4350751681936</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,16 +35175,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35257,19 +35257,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>91.0829537758999</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35412,16 +35412,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35494,22 +35494,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>34.55702612384782</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,13 +35655,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>113.3808631277494</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35977,10 +35977,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P18" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36135,7 +36135,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36685,13 +36685,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O27" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36916,13 +36916,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>91.0829537758999</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37633,13 +37633,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798016</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37788,10 +37788,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153932</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37861,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="O42" t="n">
-        <v>240.0046611659691</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38025,10 +38025,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655598</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>207.9338608153932</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>55.51629994036225</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
